--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,79 +671,106 @@
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +798,20 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +839,20 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +864,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +897,20 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +938,61 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="I14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +1020,20 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +1042,94 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="F17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="D18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1141,94 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="D21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1256,61 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E23" s="3">
-        <v>-4300</v>
+        <v>-5400</v>
       </c>
       <c r="F23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1338,20 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1379,102 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4300</v>
+        <v>-5400</v>
       </c>
       <c r="F26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4300</v>
+        <v>-5400</v>
       </c>
       <c r="F27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,28 +1502,40 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>200</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1300,8 +1543,20 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1584,20 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1625,102 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4300</v>
+        <v>-5200</v>
       </c>
       <c r="F33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1748,107 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4300</v>
+        <v>-5200</v>
       </c>
       <c r="F35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1860,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,193 +1877,269 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>700</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1732,27 +2151,39 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1766,8 +2197,20 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2238,20 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2279,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2320,61 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="M52" s="3">
         <v>4400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="N52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2402,61 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2468,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,124 +2485,176 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H60" s="3">
         <v>3100</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
       </c>
       <c r="I60" s="3">
         <v>2100</v>
       </c>
       <c r="J60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2111,37 +2682,61 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2764,20 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2805,20 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2846,61 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H66" s="3">
         <v>4500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1800</v>
       </c>
       <c r="I66" s="3">
         <v>2100</v>
       </c>
       <c r="J66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2912,12 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2945,20 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2986,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +3027,20 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +3068,61 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-35600</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-35200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-29500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-27500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-24500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +3150,20 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +3191,20 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +3232,61 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>400</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +3314,107 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-6700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4300</v>
+        <v>-5200</v>
       </c>
       <c r="F81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3426,12 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3459,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3500,20 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3541,20 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3582,20 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3623,20 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3664,61 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3730,53 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3804,20 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3845,61 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3911,12 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3944,20 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3985,20 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +4026,20 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +4067,61 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +4149,57 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-800</v>
+        <v>-2900</v>
       </c>
       <c r="E102" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -962,10 +962,10 @@
         <v>-500</v>
       </c>
       <c r="F14" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3">
         <v>-900</v>
@@ -1052,13 +1052,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E17" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F17" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="G17" s="3">
         <v>1500</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1192,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1274,13 +1274,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E23" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="F23" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G23" s="3">
         <v>-1500</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -1397,13 +1397,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E26" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="F26" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G26" s="3">
         <v>-1500</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
@@ -1438,13 +1438,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="F27" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G27" s="3">
         <v>-1500</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -1684,13 +1684,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F33" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G33" s="3">
         <v>-1500</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -1766,13 +1766,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F35" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G35" s="3">
         <v>-1500</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -1887,13 +1887,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="E41" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="F41" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G41" s="3">
         <v>700</v>
@@ -1902,7 +1902,7 @@
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J41" s="3">
         <v>400</v>
@@ -2092,13 +2092,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E46" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="F46" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="G46" s="3">
         <v>1200</v>
@@ -2107,7 +2107,7 @@
         <v>1200</v>
       </c>
       <c r="I46" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
@@ -2174,16 +2174,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E48" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G48" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
-        <v>6200</v>
-      </c>
       <c r="F52" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H52" s="3">
         <v>3600</v>
@@ -2420,22 +2420,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="E54" s="3">
-        <v>26200</v>
+        <v>26800</v>
       </c>
       <c r="F54" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="G54" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H54" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I54" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
@@ -2495,13 +2495,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>1600</v>
@@ -2510,7 +2510,7 @@
         <v>1500</v>
       </c>
       <c r="I57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1900</v>
@@ -2536,10 +2536,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -2577,19 +2577,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
         <v>2700</v>
       </c>
       <c r="F59" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G59" s="3">
         <v>2500</v>
       </c>
       <c r="H59" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2618,19 +2618,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E60" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F60" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="G60" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H60" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I60" s="3">
         <v>2100</v>
@@ -2662,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F61" s="3">
         <v>1100</v>
       </c>
       <c r="G61" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E62" s="3">
         <v>3000</v>
@@ -2864,19 +2864,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="E66" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="F66" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="G66" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="H66" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I66" s="3">
         <v>2100</v>
@@ -3086,25 +3086,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-22700</v>
+        <v>-23200</v>
       </c>
       <c r="E72" s="3">
-        <v>-15900</v>
+        <v>-16300</v>
       </c>
       <c r="F72" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="G72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="H72" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="I72" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="J72" s="3">
-        <v>-35400</v>
+        <v>-36200</v>
       </c>
       <c r="K72" s="3">
         <v>-35200</v>
@@ -3250,10 +3250,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="E76" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="F76" s="3">
         <v>400</v>
@@ -3378,13 +3378,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F81" s="3">
-        <v>-7600</v>
+        <v>-7800</v>
       </c>
       <c r="G81" s="3">
         <v>-1500</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
@@ -3685,10 +3685,10 @@
         <v>-1500</v>
       </c>
       <c r="E89" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="F89" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="G89" s="3">
         <v>-800</v>
@@ -3863,7 +3863,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4088,10 +4088,10 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="F100" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G100" s="3">
         <v>1600</v>
@@ -4170,16 +4170,16 @@
         <v>-2900</v>
       </c>
       <c r="E102" s="3">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="F102" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I102" s="3">
         <v>1000</v>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -769,16 +777,22 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -810,16 +824,22 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -851,8 +871,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +894,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +937,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +984,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -959,45 +999,51 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1032,8 +1078,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,60 +1098,68 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10900</v>
+        <v>31000</v>
       </c>
       <c r="E17" s="3">
-        <v>5600</v>
+        <v>27300</v>
       </c>
       <c r="F17" s="3">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="G17" s="3">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+        <v>-8500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1107,29 +1167,35 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,19 +1211,21 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1165,40 +1233,46 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>-8300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1206,52 +1280,58 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1268,49 +1348,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E23" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="F23" s="3">
-        <v>-7800</v>
+        <v>-6800</v>
       </c>
       <c r="G23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1442,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1489,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E26" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="F26" s="3">
-        <v>-7800</v>
+        <v>-6800</v>
       </c>
       <c r="G26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
-        <v>-5600</v>
+        <v>-6200</v>
       </c>
       <c r="F27" s="3">
-        <v>-7800</v>
+        <v>-6800</v>
       </c>
       <c r="G27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,34 +1630,40 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1555,8 +1677,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1724,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,19 +1771,25 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -1657,70 +1797,82 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1912,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2034,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2053,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
-        <v>14200</v>
-      </c>
       <c r="F41" s="3">
-        <v>2400</v>
+        <v>10900</v>
       </c>
       <c r="G41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1948,43 +2128,49 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1993,19 +2179,25 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2030,105 +2222,123 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12700</v>
+        <v>10300</v>
       </c>
       <c r="E46" s="3">
-        <v>15600</v>
+        <v>18200</v>
       </c>
       <c r="F46" s="3">
-        <v>5000</v>
+        <v>12600</v>
       </c>
       <c r="G46" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,34 +2373,40 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8500</v>
+        <v>35600</v>
       </c>
       <c r="E48" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G48" s="3">
         <v>4900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2209,8 +2425,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2472,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2519,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2566,61 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6400</v>
+        <v>10500</v>
       </c>
       <c r="E52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
-        <v>4000</v>
-      </c>
       <c r="G52" s="3">
-        <v>4900</v>
+        <v>6300</v>
       </c>
       <c r="H52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2660,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27600</v>
+        <v>56400</v>
       </c>
       <c r="E54" s="3">
-        <v>26800</v>
+        <v>56200</v>
       </c>
       <c r="F54" s="3">
-        <v>12400</v>
+        <v>27400</v>
       </c>
       <c r="G54" s="3">
-        <v>9400</v>
+        <v>26500</v>
       </c>
       <c r="H54" s="3">
-        <v>4900</v>
+        <v>12300</v>
       </c>
       <c r="I54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2730,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,79 +2749,87 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1900</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
       </c>
       <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2571,111 +2839,129 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3600</v>
+        <v>20000</v>
       </c>
       <c r="E59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10700</v>
+        <v>28500</v>
       </c>
       <c r="E60" s="3">
-        <v>6200</v>
+        <v>24300</v>
       </c>
       <c r="F60" s="3">
-        <v>8700</v>
+        <v>10600</v>
       </c>
       <c r="G60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="E61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2694,37 +2980,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7000</v>
+        <v>27900</v>
       </c>
       <c r="E62" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2735,8 +3027,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3074,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3121,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3168,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17700</v>
+        <v>61300</v>
       </c>
       <c r="E66" s="3">
-        <v>10300</v>
+        <v>53600</v>
       </c>
       <c r="F66" s="3">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="G66" s="3">
-        <v>9000</v>
+        <v>10200</v>
       </c>
       <c r="H66" s="3">
-        <v>4600</v>
+        <v>11900</v>
       </c>
       <c r="I66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3238,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3281,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3328,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3375,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3422,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23200</v>
+        <v>-43700</v>
       </c>
       <c r="E72" s="3">
-        <v>-16300</v>
+        <v>-34900</v>
       </c>
       <c r="F72" s="3">
-        <v>-9900</v>
+        <v>-23000</v>
       </c>
       <c r="G72" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-29500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-24500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3516,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3563,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3610,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9900</v>
+        <v>-4900</v>
       </c>
       <c r="E76" s="3">
-        <v>16500</v>
+        <v>2600</v>
       </c>
       <c r="F76" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3704,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,13 +3826,15 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3471,8 +3869,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3916,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3963,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4010,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4057,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4104,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-900</v>
-      </c>
       <c r="I89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,37 +4174,39 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3775,8 +4217,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4264,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4311,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4381,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4424,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4471,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4518,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,49 +4565,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>6300</v>
-      </c>
       <c r="G100" s="3">
-        <v>1600</v>
+        <v>17600</v>
       </c>
       <c r="H100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>300</v>
+      </c>
+      <c r="K100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4161,45 +4659,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="E102" s="3">
-        <v>12100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22500</v>
+        <v>41000</v>
       </c>
       <c r="E8" s="3">
-        <v>21200</v>
+        <v>23200</v>
       </c>
       <c r="F8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>21800</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -783,19 +787,22 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6900</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>7100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5900</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -830,19 +837,22 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>15600</v>
+        <v>29100</v>
       </c>
       <c r="E10" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>16000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -877,8 +887,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +909,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,8 +957,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,8 +1007,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,49 +1025,52 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
-        <v>3900</v>
-      </c>
       <c r="I14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1084,8 +1107,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1126,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31000</v>
+        <v>39900</v>
       </c>
       <c r="E17" s="3">
-        <v>27300</v>
+        <v>31900</v>
       </c>
       <c r="F17" s="3">
-        <v>10800</v>
+        <v>28200</v>
       </c>
       <c r="G17" s="3">
-        <v>5500</v>
+        <v>11200</v>
       </c>
       <c r="H17" s="3">
-        <v>7900</v>
+        <v>5700</v>
       </c>
       <c r="I17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8500</v>
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
-        <v>-6100</v>
+        <v>-8800</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>-6300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-7000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,113 +1246,120 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>-100</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8300</v>
+        <v>500</v>
       </c>
       <c r="E21" s="3">
-        <v>-6100</v>
+        <v>-8600</v>
       </c>
       <c r="F21" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>-6300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-7000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>-1500</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1333,8 +1373,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1354,55 +1394,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F23" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G23" s="3">
-        <v>-5500</v>
+        <v>-7000</v>
       </c>
       <c r="H23" s="3">
-        <v>-7700</v>
+        <v>-5700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1448,8 +1494,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1544,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F26" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G26" s="3">
-        <v>-5500</v>
+        <v>-7000</v>
       </c>
       <c r="H26" s="3">
-        <v>-7700</v>
+        <v>-5700</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F27" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G27" s="3">
-        <v>-5500</v>
+        <v>-7000</v>
       </c>
       <c r="H27" s="3">
-        <v>-7700</v>
+        <v>-5700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,37 +1694,40 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1683,8 +1744,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1794,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,102 +1844,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F33" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G33" s="3">
-        <v>-5300</v>
+        <v>-7000</v>
       </c>
       <c r="H33" s="3">
-        <v>-7700</v>
+        <v>-5500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +1994,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F35" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G35" s="3">
-        <v>-5300</v>
+        <v>-7000</v>
       </c>
       <c r="H35" s="3">
-        <v>-7700</v>
+        <v>-5500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2121,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,55 +2141,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
-        <v>11000</v>
-      </c>
       <c r="F41" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="G41" s="3">
-        <v>14100</v>
+        <v>11200</v>
       </c>
       <c r="H41" s="3">
-        <v>2300</v>
+        <v>14500</v>
       </c>
       <c r="I41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2134,46 +2224,49 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
         <v>200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2185,19 +2278,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2228,11 +2324,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2240,105 +2336,114 @@
       <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
-        <v>2600</v>
-      </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
       </c>
       <c r="L45" s="3">
+        <v>900</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10300</v>
+        <v>15200</v>
       </c>
       <c r="E46" s="3">
-        <v>18200</v>
+        <v>10700</v>
       </c>
       <c r="F46" s="3">
-        <v>12600</v>
+        <v>18800</v>
       </c>
       <c r="G46" s="3">
-        <v>15400</v>
+        <v>12900</v>
       </c>
       <c r="H46" s="3">
-        <v>4900</v>
+        <v>15900</v>
       </c>
       <c r="I46" s="3">
-        <v>1200</v>
+        <v>5100</v>
       </c>
       <c r="J46" s="3">
         <v>1200</v>
       </c>
       <c r="K46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2379,36 +2484,39 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>35600</v>
+        <v>38700</v>
       </c>
       <c r="E48" s="3">
-        <v>29200</v>
+        <v>36700</v>
       </c>
       <c r="F48" s="3">
-        <v>8400</v>
+        <v>30100</v>
       </c>
       <c r="G48" s="3">
-        <v>4900</v>
+        <v>8700</v>
       </c>
       <c r="H48" s="3">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="I48" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2431,8 +2539,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2478,8 +2589,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2639,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,55 +2689,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="E52" s="3">
-        <v>8800</v>
+        <v>10800</v>
       </c>
       <c r="F52" s="3">
-        <v>6300</v>
+        <v>9100</v>
       </c>
       <c r="G52" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>4500</v>
-      </c>
-      <c r="O52" s="3">
-        <v>4400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +2789,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56400</v>
+        <v>66500</v>
       </c>
       <c r="E54" s="3">
-        <v>56200</v>
+        <v>58100</v>
       </c>
       <c r="F54" s="3">
-        <v>27400</v>
+        <v>57900</v>
       </c>
       <c r="G54" s="3">
-        <v>26500</v>
+        <v>28200</v>
       </c>
       <c r="H54" s="3">
-        <v>12300</v>
+        <v>27300</v>
       </c>
       <c r="I54" s="3">
-        <v>9300</v>
+        <v>12700</v>
       </c>
       <c r="J54" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +2861,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,88 +2881,92 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6400</v>
+        <v>8900</v>
       </c>
       <c r="E57" s="3">
-        <v>8600</v>
+        <v>6600</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>8900</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2845,43 +2979,46 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>13600</v>
+        <v>20700</v>
       </c>
       <c r="F59" s="3">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="G59" s="3">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="H59" s="3">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="I59" s="3">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -2890,81 +3027,87 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28500</v>
+        <v>35900</v>
       </c>
       <c r="E60" s="3">
-        <v>24300</v>
+        <v>29300</v>
       </c>
       <c r="F60" s="3">
-        <v>10600</v>
+        <v>25000</v>
       </c>
       <c r="G60" s="3">
-        <v>6100</v>
+        <v>10900</v>
       </c>
       <c r="H60" s="3">
-        <v>8600</v>
+        <v>6300</v>
       </c>
       <c r="I60" s="3">
-        <v>4600</v>
+        <v>8900</v>
       </c>
       <c r="J60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4900</v>
+        <v>8400</v>
       </c>
       <c r="E61" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="G61" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
       </c>
       <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2986,40 +3129,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27900</v>
+        <v>26900</v>
       </c>
       <c r="E62" s="3">
-        <v>24500</v>
+        <v>28800</v>
       </c>
       <c r="F62" s="3">
-        <v>6900</v>
+        <v>25200</v>
       </c>
       <c r="G62" s="3">
-        <v>3000</v>
+        <v>7100</v>
       </c>
       <c r="H62" s="3">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="J62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3033,8 +3179,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3229,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3279,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3329,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61300</v>
+        <v>71200</v>
       </c>
       <c r="E66" s="3">
-        <v>53600</v>
+        <v>63100</v>
       </c>
       <c r="F66" s="3">
-        <v>17500</v>
+        <v>55300</v>
       </c>
       <c r="G66" s="3">
-        <v>10200</v>
+        <v>18100</v>
       </c>
       <c r="H66" s="3">
-        <v>11900</v>
+        <v>10500</v>
       </c>
       <c r="I66" s="3">
-        <v>8900</v>
+        <v>12300</v>
       </c>
       <c r="J66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3401,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3449,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,8 +3499,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3381,8 +3549,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3599,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43700</v>
+        <v>-44800</v>
       </c>
       <c r="E72" s="3">
-        <v>-34900</v>
+        <v>-45000</v>
       </c>
       <c r="F72" s="3">
-        <v>-23000</v>
+        <v>-36000</v>
       </c>
       <c r="G72" s="3">
-        <v>-16200</v>
+        <v>-23700</v>
       </c>
       <c r="H72" s="3">
-        <v>-9800</v>
+        <v>-16700</v>
       </c>
       <c r="I72" s="3">
-        <v>-3200</v>
+        <v>-10100</v>
       </c>
       <c r="J72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +3699,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +3749,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +3799,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="E76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
-        <v>9800</v>
-      </c>
       <c r="G76" s="3">
-        <v>16300</v>
+        <v>10100</v>
       </c>
       <c r="H76" s="3">
-        <v>400</v>
+        <v>16800</v>
       </c>
       <c r="I76" s="3">
         <v>400</v>
       </c>
       <c r="J76" s="3">
+        <v>400</v>
+      </c>
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +3899,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8700</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
-        <v>-6200</v>
+        <v>-9000</v>
       </c>
       <c r="F81" s="3">
-        <v>-6800</v>
+        <v>-6400</v>
       </c>
       <c r="G81" s="3">
-        <v>-5300</v>
+        <v>-7000</v>
       </c>
       <c r="H81" s="3">
-        <v>-7700</v>
+        <v>-5500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-8000</v>
       </c>
       <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,17 +4026,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -3875,8 +4074,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4124,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4174,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4224,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4274,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4324,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6800</v>
+        <v>5900</v>
       </c>
       <c r="E89" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H89" s="3">
-        <v>-4000</v>
+        <v>-5600</v>
       </c>
       <c r="I89" s="3">
-        <v>-600</v>
+        <v>-4100</v>
       </c>
       <c r="J89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-2300</v>
       </c>
       <c r="P89" s="3">
         <v>-2300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,28 +4396,29 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>-200</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4208,8 +4429,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4223,8 +4444,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4494,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4544,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4616,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +4664,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +4714,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +4764,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,55 +4814,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
-        <v>7400</v>
-      </c>
       <c r="F100" s="3">
+        <v>7600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>17600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +4914,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8400</v>
+        <v>3200</v>
       </c>
       <c r="E102" s="3">
-        <v>5100</v>
+        <v>-8700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2900</v>
+        <v>5200</v>
       </c>
       <c r="G102" s="3">
-        <v>12000</v>
+        <v>-3000</v>
       </c>
       <c r="H102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,121 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41000</v>
+        <v>44900</v>
       </c>
       <c r="E8" s="3">
-        <v>23200</v>
+        <v>42600</v>
       </c>
       <c r="F8" s="3">
-        <v>21800</v>
+        <v>24100</v>
       </c>
       <c r="G8" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+        <v>22700</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -790,22 +793,25 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E9" s="3">
-        <v>7100</v>
+        <v>12400</v>
       </c>
       <c r="F9" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+        <v>7400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -840,22 +846,25 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>29100</v>
+        <v>33000</v>
       </c>
       <c r="E10" s="3">
-        <v>16000</v>
+        <v>30200</v>
       </c>
       <c r="F10" s="3">
-        <v>15900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+        <v>16700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>16500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -890,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,52 +1047,55 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>4100</v>
+        <v>-600</v>
       </c>
       <c r="J14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1110,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>39900</v>
+        <v>46000</v>
       </c>
       <c r="E17" s="3">
-        <v>31900</v>
+        <v>41500</v>
       </c>
       <c r="F17" s="3">
-        <v>28200</v>
+        <v>33100</v>
       </c>
       <c r="G17" s="3">
-        <v>11200</v>
+        <v>29200</v>
       </c>
       <c r="H17" s="3">
-        <v>5700</v>
+        <v>11600</v>
       </c>
       <c r="I17" s="3">
-        <v>8100</v>
+        <v>5900</v>
       </c>
       <c r="J17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-8800</v>
-      </c>
       <c r="F18" s="3">
-        <v>-6300</v>
+        <v>-9100</v>
       </c>
       <c r="G18" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+        <v>-6600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-7300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,122 +1279,129 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>-100</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
-        <v>-8600</v>
-      </c>
       <c r="F21" s="3">
-        <v>-6300</v>
+        <v>-8900</v>
       </c>
       <c r="G21" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+        <v>-6600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-7300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1376,8 +1415,8 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1397,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F23" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5700</v>
+        <v>-7300</v>
       </c>
       <c r="I23" s="3">
-        <v>-8000</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F26" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H26" s="3">
-        <v>-5700</v>
+        <v>-7300</v>
       </c>
       <c r="I26" s="3">
-        <v>-8000</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H27" s="3">
-        <v>-5700</v>
+        <v>-7300</v>
       </c>
       <c r="I27" s="3">
-        <v>-8000</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1708,29 +1768,29 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1747,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G33" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H33" s="3">
-        <v>-5500</v>
+        <v>-7300</v>
       </c>
       <c r="I33" s="3">
-        <v>-8000</v>
+        <v>-5700</v>
       </c>
       <c r="J33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G35" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H35" s="3">
-        <v>-5500</v>
+        <v>-7300</v>
       </c>
       <c r="I35" s="3">
-        <v>-8000</v>
+        <v>-5700</v>
       </c>
       <c r="J35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>14500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>700</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>3800</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2227,49 +2316,52 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2281,19 +2373,22 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2327,11 +2422,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2339,111 +2434,120 @@
       <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1600</v>
-      </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="J45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>900</v>
       </c>
       <c r="L45" s="3">
         <v>900</v>
       </c>
       <c r="M45" s="3">
+        <v>900</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15200</v>
+        <v>16200</v>
       </c>
       <c r="E46" s="3">
-        <v>10700</v>
+        <v>15800</v>
       </c>
       <c r="F46" s="3">
-        <v>18800</v>
+        <v>11100</v>
       </c>
       <c r="G46" s="3">
-        <v>12900</v>
+        <v>19500</v>
       </c>
       <c r="H46" s="3">
-        <v>15900</v>
+        <v>13400</v>
       </c>
       <c r="I46" s="3">
-        <v>5100</v>
+        <v>16500</v>
       </c>
       <c r="J46" s="3">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="K46" s="3">
         <v>1200</v>
       </c>
       <c r="L46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,40 +2591,43 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38700</v>
+        <v>45800</v>
       </c>
       <c r="E48" s="3">
-        <v>36700</v>
+        <v>40200</v>
       </c>
       <c r="F48" s="3">
-        <v>30100</v>
+        <v>38100</v>
       </c>
       <c r="G48" s="3">
-        <v>8700</v>
+        <v>31200</v>
       </c>
       <c r="H48" s="3">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="I48" s="3">
-        <v>3600</v>
+        <v>5200</v>
       </c>
       <c r="J48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -2542,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2592,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>12500</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>10800</v>
+        <v>13000</v>
       </c>
       <c r="F52" s="3">
-        <v>9100</v>
+        <v>11200</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>9400</v>
       </c>
       <c r="H52" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>6700</v>
       </c>
       <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66500</v>
+        <v>70700</v>
       </c>
       <c r="E54" s="3">
-        <v>58100</v>
+        <v>69000</v>
       </c>
       <c r="F54" s="3">
-        <v>57900</v>
+        <v>60300</v>
       </c>
       <c r="G54" s="3">
-        <v>28200</v>
+        <v>60100</v>
       </c>
       <c r="H54" s="3">
-        <v>27300</v>
+        <v>29300</v>
       </c>
       <c r="I54" s="3">
-        <v>12700</v>
+        <v>28400</v>
       </c>
       <c r="J54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K54" s="3">
         <v>9600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,94 +3011,98 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>6900</v>
       </c>
       <c r="E57" s="3">
-        <v>6600</v>
+        <v>9200</v>
       </c>
       <c r="F57" s="3">
-        <v>8900</v>
+        <v>6800</v>
       </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>9200</v>
       </c>
       <c r="H57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
-        <v>2300</v>
-      </c>
       <c r="J57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="F58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G58" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
-        <v>1000</v>
-      </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2982,46 +3115,49 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>28700</v>
       </c>
       <c r="E59" s="3">
-        <v>20700</v>
+        <v>25400</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>21500</v>
       </c>
       <c r="G59" s="3">
-        <v>3600</v>
+        <v>14600</v>
       </c>
       <c r="H59" s="3">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="I59" s="3">
-        <v>5500</v>
+        <v>2900</v>
       </c>
       <c r="J59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3030,87 +3166,93 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35900</v>
+        <v>38500</v>
       </c>
       <c r="E60" s="3">
-        <v>29300</v>
+        <v>37300</v>
       </c>
       <c r="F60" s="3">
-        <v>25000</v>
+        <v>30500</v>
       </c>
       <c r="G60" s="3">
-        <v>10900</v>
+        <v>26000</v>
       </c>
       <c r="H60" s="3">
-        <v>6300</v>
+        <v>11400</v>
       </c>
       <c r="I60" s="3">
-        <v>8900</v>
+        <v>6500</v>
       </c>
       <c r="J60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="E61" s="3">
-        <v>5100</v>
+        <v>8800</v>
       </c>
       <c r="F61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="H61" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>1100</v>
       </c>
       <c r="J61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3132,43 +3274,46 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26900</v>
+        <v>35200</v>
       </c>
       <c r="E62" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="F62" s="3">
-        <v>25200</v>
+        <v>29800</v>
       </c>
       <c r="G62" s="3">
-        <v>7100</v>
+        <v>26200</v>
       </c>
       <c r="H62" s="3">
-        <v>3100</v>
+        <v>7400</v>
       </c>
       <c r="I62" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="J62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3182,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>71200</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
-        <v>63100</v>
+        <v>74000</v>
       </c>
       <c r="F66" s="3">
-        <v>55300</v>
+        <v>65600</v>
       </c>
       <c r="G66" s="3">
-        <v>18100</v>
+        <v>57400</v>
       </c>
       <c r="H66" s="3">
-        <v>10500</v>
+        <v>18800</v>
       </c>
       <c r="I66" s="3">
-        <v>12300</v>
+        <v>10900</v>
       </c>
       <c r="J66" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44800</v>
+        <v>-52700</v>
       </c>
       <c r="E72" s="3">
-        <v>-45000</v>
+        <v>-46500</v>
       </c>
       <c r="F72" s="3">
-        <v>-36000</v>
+        <v>-46700</v>
       </c>
       <c r="G72" s="3">
-        <v>-23700</v>
+        <v>-37400</v>
       </c>
       <c r="H72" s="3">
-        <v>-16700</v>
+        <v>-24600</v>
       </c>
       <c r="I72" s="3">
-        <v>-10100</v>
+        <v>-17300</v>
       </c>
       <c r="J72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-24500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4700</v>
+        <v>-10000</v>
       </c>
       <c r="E76" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="F76" s="3">
-        <v>2600</v>
+        <v>-5300</v>
       </c>
       <c r="G76" s="3">
-        <v>10100</v>
+        <v>2800</v>
       </c>
       <c r="H76" s="3">
-        <v>16800</v>
+        <v>10500</v>
       </c>
       <c r="I76" s="3">
-        <v>400</v>
+        <v>17500</v>
       </c>
       <c r="J76" s="3">
         <v>400</v>
       </c>
       <c r="K76" s="3">
+        <v>400</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-9000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-6400</v>
+        <v>-9400</v>
       </c>
       <c r="G81" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="H81" s="3">
-        <v>-5500</v>
+        <v>-7300</v>
       </c>
       <c r="I81" s="3">
-        <v>-8000</v>
+        <v>-5700</v>
       </c>
       <c r="J81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,20 +4224,21 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4077,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5900</v>
+        <v>-7000</v>
       </c>
       <c r="E89" s="3">
-        <v>-7100</v>
+        <v>6200</v>
       </c>
       <c r="F89" s="3">
-        <v>-1200</v>
+        <v>-7300</v>
       </c>
       <c r="G89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q89" s="3">
         <v>-2300</v>
       </c>
       <c r="R89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,31 +4616,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4432,8 +4652,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4447,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2300</v>
+        <v>3500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="F94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
-        <v>800</v>
-      </c>
       <c r="F100" s="3">
-        <v>7600</v>
+        <v>900</v>
       </c>
       <c r="G100" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>18100</v>
-      </c>
       <c r="I100" s="3">
-        <v>6400</v>
+        <v>18800</v>
       </c>
       <c r="J100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4917,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3200</v>
+        <v>-3200</v>
       </c>
       <c r="E102" s="3">
-        <v>-8700</v>
+        <v>3300</v>
       </c>
       <c r="F102" s="3">
-        <v>5200</v>
+        <v>-9000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3000</v>
+        <v>5400</v>
       </c>
       <c r="H102" s="3">
-        <v>12400</v>
+        <v>-3100</v>
       </c>
       <c r="I102" s="3">
-        <v>1700</v>
+        <v>12900</v>
       </c>
       <c r="J102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>44900</v>
+        <v>43500</v>
       </c>
       <c r="E8" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="F8" s="3">
-        <v>24100</v>
+        <v>41600</v>
       </c>
       <c r="G8" s="3">
-        <v>22700</v>
+        <v>23500</v>
       </c>
       <c r="H8" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+        <v>22100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -796,25 +800,28 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="E9" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="F9" s="3">
-        <v>7400</v>
+        <v>12100</v>
       </c>
       <c r="G9" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+        <v>7200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -849,25 +856,28 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>33000</v>
+        <v>30600</v>
       </c>
       <c r="E10" s="3">
-        <v>30200</v>
+        <v>32200</v>
       </c>
       <c r="F10" s="3">
-        <v>16700</v>
+        <v>29500</v>
       </c>
       <c r="G10" s="3">
-        <v>16500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+        <v>16300</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,13 +1046,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1050,55 +1070,58 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K14" s="3">
         <v>4200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46000</v>
+        <v>50900</v>
       </c>
       <c r="E17" s="3">
-        <v>41500</v>
+        <v>44900</v>
       </c>
       <c r="F17" s="3">
-        <v>33100</v>
+        <v>40500</v>
       </c>
       <c r="G17" s="3">
-        <v>29200</v>
+        <v>32400</v>
       </c>
       <c r="H17" s="3">
-        <v>11600</v>
+        <v>28500</v>
       </c>
       <c r="I17" s="3">
-        <v>5900</v>
+        <v>11300</v>
       </c>
       <c r="J17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-9100</v>
-      </c>
       <c r="G18" s="3">
-        <v>-6600</v>
+        <v>-8900</v>
       </c>
       <c r="H18" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+        <v>-6400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-7100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,131 +1313,138 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>-800</v>
+        <v>-4000</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>-100</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-6900</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>-4600</v>
       </c>
       <c r="F21" s="3">
-        <v>-8900</v>
+        <v>1300</v>
       </c>
       <c r="G21" s="3">
-        <v>-6600</v>
+        <v>-8700</v>
       </c>
       <c r="H21" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+        <v>-6400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-7100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-4700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>900</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1418,8 +1458,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1439,61 +1479,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-8200</v>
       </c>
       <c r="E23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G23" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H23" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I23" s="3">
-        <v>-5900</v>
+        <v>-7100</v>
       </c>
       <c r="J23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6100</v>
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G26" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H26" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>-7100</v>
       </c>
       <c r="J26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6100</v>
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G27" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H27" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I27" s="3">
-        <v>-5900</v>
+        <v>-7100</v>
       </c>
       <c r="J27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,13 +1815,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1771,29 +1832,29 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6100</v>
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G33" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H33" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I33" s="3">
-        <v>-5700</v>
+        <v>-7100</v>
       </c>
       <c r="J33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6100</v>
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G35" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H35" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I35" s="3">
-        <v>-5700</v>
+        <v>-7100</v>
       </c>
       <c r="J35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="E41" s="3">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="F41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
-        <v>11700</v>
-      </c>
       <c r="H41" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="I41" s="3">
-        <v>15100</v>
+        <v>11400</v>
       </c>
       <c r="J41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2319,52 +2409,55 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3700</v>
+        <v>5400</v>
       </c>
       <c r="E43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2376,19 +2469,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2425,11 +2521,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
@@ -2437,117 +2533,126 @@
       <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="E45" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>9600</v>
       </c>
       <c r="G45" s="3">
         <v>7100</v>
       </c>
       <c r="H45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>900</v>
       </c>
       <c r="M45" s="3">
         <v>900</v>
       </c>
       <c r="N45" s="3">
+        <v>900</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16200</v>
+        <v>19800</v>
       </c>
       <c r="E46" s="3">
         <v>15800</v>
       </c>
       <c r="F46" s="3">
-        <v>11100</v>
+        <v>15400</v>
       </c>
       <c r="G46" s="3">
-        <v>19500</v>
+        <v>10800</v>
       </c>
       <c r="H46" s="3">
-        <v>13400</v>
+        <v>19000</v>
       </c>
       <c r="I46" s="3">
-        <v>16500</v>
+        <v>13100</v>
       </c>
       <c r="J46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1200</v>
       </c>
       <c r="L46" s="3">
         <v>1200</v>
       </c>
       <c r="M46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2594,43 +2699,46 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45800</v>
+        <v>65700</v>
       </c>
       <c r="E48" s="3">
-        <v>40200</v>
+        <v>44700</v>
       </c>
       <c r="F48" s="3">
-        <v>38100</v>
+        <v>39300</v>
       </c>
       <c r="G48" s="3">
-        <v>31200</v>
+        <v>37200</v>
       </c>
       <c r="H48" s="3">
-        <v>9000</v>
+        <v>30500</v>
       </c>
       <c r="I48" s="3">
-        <v>5200</v>
+        <v>8800</v>
       </c>
       <c r="J48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>9500</v>
       </c>
       <c r="E52" s="3">
-        <v>13000</v>
+        <v>8600</v>
       </c>
       <c r="F52" s="3">
-        <v>11200</v>
+        <v>12700</v>
       </c>
       <c r="G52" s="3">
-        <v>9400</v>
+        <v>10900</v>
       </c>
       <c r="H52" s="3">
-        <v>6800</v>
+        <v>9200</v>
       </c>
       <c r="I52" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70700</v>
+        <v>95100</v>
       </c>
       <c r="E54" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="F54" s="3">
-        <v>60300</v>
+        <v>67400</v>
       </c>
       <c r="G54" s="3">
-        <v>60100</v>
+        <v>58900</v>
       </c>
       <c r="H54" s="3">
-        <v>29300</v>
+        <v>58700</v>
       </c>
       <c r="I54" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="J54" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,100 +3142,104 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="E57" s="3">
-        <v>9200</v>
+        <v>6700</v>
       </c>
       <c r="F57" s="3">
-        <v>6800</v>
+        <v>9000</v>
       </c>
       <c r="G57" s="3">
-        <v>9200</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>9000</v>
       </c>
       <c r="I57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
-        <v>2200</v>
-      </c>
       <c r="G58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H58" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I58" s="3">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
       </c>
       <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3118,49 +3252,52 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28700</v>
+        <v>35800</v>
       </c>
       <c r="E59" s="3">
-        <v>25400</v>
+        <v>28000</v>
       </c>
       <c r="F59" s="3">
-        <v>21500</v>
+        <v>24800</v>
       </c>
       <c r="G59" s="3">
-        <v>14600</v>
+        <v>20900</v>
       </c>
       <c r="H59" s="3">
-        <v>3800</v>
+        <v>14200</v>
       </c>
       <c r="I59" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="J59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3169,93 +3306,99 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38500</v>
+        <v>46100</v>
       </c>
       <c r="E60" s="3">
-        <v>37300</v>
+        <v>37600</v>
       </c>
       <c r="F60" s="3">
-        <v>30500</v>
+        <v>36400</v>
       </c>
       <c r="G60" s="3">
-        <v>26000</v>
+        <v>29700</v>
       </c>
       <c r="H60" s="3">
-        <v>11400</v>
+        <v>25300</v>
       </c>
       <c r="I60" s="3">
-        <v>6500</v>
+        <v>11100</v>
       </c>
       <c r="J60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7000</v>
+        <v>10600</v>
       </c>
       <c r="E61" s="3">
-        <v>8800</v>
+        <v>6900</v>
       </c>
       <c r="F61" s="3">
-        <v>5200</v>
+        <v>8500</v>
       </c>
       <c r="G61" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3277,46 +3420,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35200</v>
+        <v>54100</v>
       </c>
       <c r="E62" s="3">
-        <v>27900</v>
+        <v>34400</v>
       </c>
       <c r="F62" s="3">
-        <v>29800</v>
+        <v>27300</v>
       </c>
       <c r="G62" s="3">
-        <v>26200</v>
+        <v>29100</v>
       </c>
       <c r="H62" s="3">
-        <v>7400</v>
+        <v>25600</v>
       </c>
       <c r="I62" s="3">
-        <v>3200</v>
+        <v>7200</v>
       </c>
       <c r="J62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>110700</v>
       </c>
       <c r="E66" s="3">
-        <v>74000</v>
+        <v>78900</v>
       </c>
       <c r="F66" s="3">
-        <v>65600</v>
+        <v>72200</v>
       </c>
       <c r="G66" s="3">
-        <v>57400</v>
+        <v>64000</v>
       </c>
       <c r="H66" s="3">
-        <v>18800</v>
+        <v>56000</v>
       </c>
       <c r="I66" s="3">
-        <v>10900</v>
+        <v>18300</v>
       </c>
       <c r="J66" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K66" s="3">
         <v>12800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52700</v>
+        <v>-59600</v>
       </c>
       <c r="E72" s="3">
-        <v>-46500</v>
+        <v>-51400</v>
       </c>
       <c r="F72" s="3">
-        <v>-46700</v>
+        <v>-45400</v>
       </c>
       <c r="G72" s="3">
-        <v>-37400</v>
+        <v>-45600</v>
       </c>
       <c r="H72" s="3">
-        <v>-24600</v>
+        <v>-36500</v>
       </c>
       <c r="I72" s="3">
-        <v>-17300</v>
+        <v>-24000</v>
       </c>
       <c r="J72" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-36200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-10000</v>
+        <v>-15700</v>
       </c>
       <c r="E76" s="3">
-        <v>-4900</v>
+        <v>-9800</v>
       </c>
       <c r="F76" s="3">
-        <v>-5300</v>
+        <v>-4800</v>
       </c>
       <c r="G76" s="3">
-        <v>2800</v>
+        <v>-5100</v>
       </c>
       <c r="H76" s="3">
-        <v>10500</v>
+        <v>2700</v>
       </c>
       <c r="I76" s="3">
-        <v>17500</v>
+        <v>10200</v>
       </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>17100</v>
       </c>
       <c r="K76" s="3">
         <v>400</v>
       </c>
       <c r="L76" s="3">
+        <v>400</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6100</v>
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9400</v>
-      </c>
       <c r="G81" s="3">
-        <v>-6600</v>
+        <v>-9100</v>
       </c>
       <c r="H81" s="3">
-        <v>-7300</v>
+        <v>-6500</v>
       </c>
       <c r="I81" s="3">
-        <v>-5700</v>
+        <v>-7100</v>
       </c>
       <c r="J81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,23 +4423,24 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7000</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>6200</v>
+        <v>-6900</v>
       </c>
       <c r="F89" s="3">
-        <v>-7300</v>
+        <v>6000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1300</v>
+        <v>-7200</v>
       </c>
       <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-2300</v>
       </c>
       <c r="R89" s="3">
         <v>-2300</v>
       </c>
       <c r="S89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,25 +4837,26 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -4643,8 +4864,8 @@
       <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-200</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4655,8 +4876,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2400</v>
-      </c>
       <c r="F94" s="3">
-        <v>-2600</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
-        <v>7900</v>
-      </c>
       <c r="H100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>18800</v>
-      </c>
       <c r="J100" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
-        <v>3300</v>
-      </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
-        <v>5400</v>
+        <v>-8800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3100</v>
+        <v>5300</v>
       </c>
       <c r="I102" s="3">
-        <v>12900</v>
+        <v>-3000</v>
       </c>
       <c r="J102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E8" s="3">
         <v>43500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23500</v>
       </c>
-      <c r="H8" s="3">
-        <v>22100</v>
-      </c>
       <c r="I8" s="3">
+        <v>22200</v>
+      </c>
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -803,29 +807,32 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
         <v>12800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -859,28 +866,31 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30600</v>
+        <v>31900</v>
       </c>
       <c r="E10" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F10" s="3">
         <v>32200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16300</v>
       </c>
-      <c r="H10" s="3">
-        <v>16100</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>16200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,16 +1066,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1073,40 +1093,43 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1114,17 +1137,17 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>600</v>
+      </c>
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E17" s="3">
         <v>50900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>44900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32400</v>
       </c>
-      <c r="H17" s="3">
-        <v>28500</v>
-      </c>
       <c r="I17" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J17" s="3">
         <v>11300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,140 +1347,147 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>-100</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1461,8 +1501,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1482,64 +1522,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1640,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,16 +1876,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1835,29 +1896,29 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2412,55 +2502,58 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
         <v>200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2472,19 +2565,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2524,11 +2620,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -2536,123 +2632,132 @@
       <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9600</v>
       </c>
-      <c r="G45" s="3">
-        <v>7100</v>
-      </c>
       <c r="H45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I45" s="3">
         <v>6900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E46" s="3">
         <v>19800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1200</v>
       </c>
       <c r="M46" s="3">
         <v>1200</v>
       </c>
       <c r="N46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2702,46 +2807,49 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>65700</v>
+        <v>92600</v>
       </c>
       <c r="E48" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F48" s="3">
         <v>44700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>30500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2763,8 +2871,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2930,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E54" s="3">
         <v>95100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>67400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>58900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>58700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,78 +3273,82 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2100</v>
       </c>
       <c r="H58" s="3">
         <v>2100</v>
@@ -3223,26 +3357,26 @@
         <v>2100</v>
       </c>
       <c r="J58" s="3">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>1100</v>
       </c>
       <c r="L58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3255,52 +3389,55 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E59" s="3">
         <v>35800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28000</v>
       </c>
-      <c r="F59" s="3">
-        <v>24800</v>
-      </c>
       <c r="G59" s="3">
-        <v>20900</v>
+        <v>24900</v>
       </c>
       <c r="H59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3309,99 +3446,105 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E60" s="3">
         <v>46100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>37600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36400</v>
       </c>
-      <c r="G60" s="3">
-        <v>29700</v>
-      </c>
       <c r="H60" s="3">
-        <v>25300</v>
+        <v>29800</v>
       </c>
       <c r="I60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>10600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6900</v>
       </c>
-      <c r="F61" s="3">
-        <v>8500</v>
-      </c>
       <c r="G61" s="3">
-        <v>5100</v>
+        <v>8600</v>
       </c>
       <c r="H61" s="3">
         <v>5100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3423,49 +3566,52 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E62" s="3">
         <v>54100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27300</v>
       </c>
-      <c r="G62" s="3">
-        <v>29100</v>
-      </c>
       <c r="H62" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I62" s="3">
         <v>25600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>110700</v>
+        <v>152900</v>
       </c>
       <c r="E66" s="3">
+        <v>110800</v>
+      </c>
+      <c r="F66" s="3">
         <v>78900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>72200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64000</v>
       </c>
-      <c r="H66" s="3">
-        <v>56000</v>
-      </c>
       <c r="I66" s="3">
+        <v>56100</v>
+      </c>
+      <c r="J66" s="3">
         <v>18300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45400</v>
       </c>
-      <c r="G72" s="3">
-        <v>-45600</v>
-      </c>
       <c r="H72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-36500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-29500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-27500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-24500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
-        <v>10200</v>
-      </c>
       <c r="J76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K76" s="3">
         <v>17100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>400</v>
       </c>
       <c r="L76" s="3">
         <v>400</v>
       </c>
       <c r="M76" s="3">
+        <v>400</v>
+      </c>
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4622,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4433,17 +4632,17 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-2300</v>
       </c>
       <c r="S89" s="3">
         <v>-2300</v>
       </c>
       <c r="T89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,25 +5058,26 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -4867,8 +5088,8 @@
       <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-200</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4879,8 +5100,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4894,8 +5115,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4800</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
-        <v>7700</v>
-      </c>
       <c r="I100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
-        <v>3200</v>
-      </c>
       <c r="G102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JET_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>JET</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>42500</v>
+        <v>58600</v>
       </c>
       <c r="E8" s="3">
-        <v>43500</v>
+        <v>43300</v>
       </c>
       <c r="F8" s="3">
-        <v>43900</v>
+        <v>44300</v>
       </c>
       <c r="G8" s="3">
-        <v>41600</v>
+        <v>44700</v>
       </c>
       <c r="H8" s="3">
-        <v>23500</v>
+        <v>42400</v>
       </c>
       <c r="I8" s="3">
-        <v>22200</v>
+        <v>23900</v>
       </c>
       <c r="J8" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -810,31 +814,34 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10600</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="3">
-        <v>12800</v>
+        <v>10800</v>
       </c>
       <c r="F9" s="3">
-        <v>11700</v>
+        <v>13100</v>
       </c>
       <c r="G9" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="H9" s="3">
-        <v>7200</v>
+        <v>12400</v>
       </c>
       <c r="I9" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>7400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -869,31 +876,34 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31900</v>
+        <v>46600</v>
       </c>
       <c r="E10" s="3">
-        <v>30700</v>
+        <v>32500</v>
       </c>
       <c r="F10" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="G10" s="3">
-        <v>29500</v>
+        <v>32800</v>
       </c>
       <c r="H10" s="3">
-        <v>16300</v>
+        <v>30000</v>
       </c>
       <c r="I10" s="3">
-        <v>16200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>16600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16400</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -928,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1096,61 +1116,64 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
         <v>600</v>
       </c>
       <c r="F15" s="3">
+        <v>600</v>
+      </c>
+      <c r="G15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51700</v>
+        <v>61800</v>
       </c>
       <c r="E17" s="3">
-        <v>50900</v>
+        <v>52600</v>
       </c>
       <c r="F17" s="3">
-        <v>44900</v>
+        <v>51800</v>
       </c>
       <c r="G17" s="3">
-        <v>40500</v>
+        <v>45700</v>
       </c>
       <c r="H17" s="3">
-        <v>32400</v>
+        <v>41300</v>
       </c>
       <c r="I17" s="3">
-        <v>28600</v>
+        <v>33000</v>
       </c>
       <c r="J17" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9100</v>
+        <v>-3200</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-8900</v>
-      </c>
       <c r="I18" s="3">
-        <v>-6400</v>
+        <v>-9000</v>
       </c>
       <c r="J18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1381,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,140 +1391,146 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-4000</v>
-      </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-8500</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
-        <v>-6900</v>
+        <v>-8700</v>
       </c>
       <c r="F21" s="3">
-        <v>-4600</v>
+        <v>-7000</v>
       </c>
       <c r="G21" s="3">
-        <v>1300</v>
+        <v>-4700</v>
       </c>
       <c r="H21" s="3">
-        <v>-8700</v>
+        <v>1400</v>
       </c>
       <c r="I21" s="3">
-        <v>-6400</v>
+        <v>-8900</v>
       </c>
       <c r="J21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-4700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
-        <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>900</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1504,8 +1544,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1525,67 +1565,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E23" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F23" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E26" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F26" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E27" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F27" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1890,8 +1951,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1899,29 +1960,29 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2123,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2065,117 +2135,123 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>4000</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F33" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F35" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2488,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5600</v>
+        <v>17900</v>
       </c>
       <c r="E41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
+        <v>700</v>
+      </c>
+      <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
+        <v>700</v>
+      </c>
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>11400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>14700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>700</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2505,58 +2595,61 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
         <v>200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7400</v>
+        <v>10200</v>
       </c>
       <c r="E43" s="3">
-        <v>5400</v>
+        <v>7600</v>
       </c>
       <c r="F43" s="3">
-        <v>3600</v>
+        <v>5500</v>
       </c>
       <c r="G43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2568,19 +2661,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2623,11 +2719,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -2635,129 +2731,138 @@
       <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="E45" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="F45" s="3">
-        <v>9700</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
-        <v>7200</v>
+        <v>9800</v>
       </c>
       <c r="I45" s="3">
-        <v>6900</v>
+        <v>7300</v>
       </c>
       <c r="J45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23700</v>
+        <v>39400</v>
       </c>
       <c r="E46" s="3">
-        <v>19800</v>
+        <v>24100</v>
       </c>
       <c r="F46" s="3">
-        <v>15800</v>
+        <v>20200</v>
       </c>
       <c r="G46" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="H46" s="3">
-        <v>10800</v>
+        <v>15700</v>
       </c>
       <c r="I46" s="3">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="J46" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K46" s="3">
         <v>13100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1200</v>
       </c>
       <c r="O46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2810,49 +2915,52 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>92600</v>
+        <v>93000</v>
       </c>
       <c r="E48" s="3">
-        <v>65800</v>
+        <v>94300</v>
       </c>
       <c r="F48" s="3">
-        <v>44700</v>
+        <v>67000</v>
       </c>
       <c r="G48" s="3">
-        <v>39300</v>
+        <v>45500</v>
       </c>
       <c r="H48" s="3">
-        <v>37200</v>
+        <v>40000</v>
       </c>
       <c r="I48" s="3">
-        <v>30500</v>
+        <v>37900</v>
       </c>
       <c r="J48" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -2874,8 +2982,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12200</v>
+        <v>15800</v>
       </c>
       <c r="E52" s="3">
-        <v>9500</v>
+        <v>12400</v>
       </c>
       <c r="F52" s="3">
-        <v>8600</v>
+        <v>9700</v>
       </c>
       <c r="G52" s="3">
-        <v>12700</v>
+        <v>8700</v>
       </c>
       <c r="H52" s="3">
-        <v>10900</v>
+        <v>12900</v>
       </c>
       <c r="I52" s="3">
-        <v>9200</v>
+        <v>11100</v>
       </c>
       <c r="J52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>128500</v>
+        <v>148200</v>
       </c>
       <c r="E54" s="3">
-        <v>95100</v>
+        <v>130800</v>
       </c>
       <c r="F54" s="3">
-        <v>69100</v>
+        <v>96800</v>
       </c>
       <c r="G54" s="3">
-        <v>67400</v>
+        <v>70400</v>
       </c>
       <c r="H54" s="3">
-        <v>58900</v>
+        <v>68700</v>
       </c>
       <c r="I54" s="3">
-        <v>58700</v>
+        <v>60000</v>
       </c>
       <c r="J54" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K54" s="3">
         <v>28600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,112 +3404,116 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13400</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>7200</v>
+        <v>13600</v>
       </c>
       <c r="F57" s="3">
-        <v>6700</v>
+        <v>7400</v>
       </c>
       <c r="G57" s="3">
-        <v>9000</v>
+        <v>6900</v>
       </c>
       <c r="H57" s="3">
-        <v>6700</v>
+        <v>9200</v>
       </c>
       <c r="I57" s="3">
-        <v>9000</v>
+        <v>6800</v>
       </c>
       <c r="J57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12200</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
-        <v>2900</v>
-      </c>
       <c r="G58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3392,55 +3526,58 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48500</v>
+        <v>45300</v>
       </c>
       <c r="E59" s="3">
-        <v>35800</v>
+        <v>49400</v>
       </c>
       <c r="F59" s="3">
-        <v>28000</v>
+        <v>36500</v>
       </c>
       <c r="G59" s="3">
-        <v>24900</v>
+        <v>28500</v>
       </c>
       <c r="H59" s="3">
-        <v>21000</v>
+        <v>25300</v>
       </c>
       <c r="I59" s="3">
-        <v>14200</v>
+        <v>21300</v>
       </c>
       <c r="J59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3449,105 +3586,111 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74100</v>
+        <v>58600</v>
       </c>
       <c r="E60" s="3">
-        <v>46100</v>
+        <v>75400</v>
       </c>
       <c r="F60" s="3">
-        <v>37600</v>
+        <v>47000</v>
       </c>
       <c r="G60" s="3">
-        <v>36400</v>
+        <v>38300</v>
       </c>
       <c r="H60" s="3">
-        <v>29800</v>
+        <v>37100</v>
       </c>
       <c r="I60" s="3">
-        <v>25400</v>
+        <v>30300</v>
       </c>
       <c r="J60" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
-        <v>10600</v>
-      </c>
       <c r="F61" s="3">
-        <v>6900</v>
+        <v>10800</v>
       </c>
       <c r="G61" s="3">
-        <v>8600</v>
+        <v>7000</v>
       </c>
       <c r="H61" s="3">
-        <v>5100</v>
+        <v>8700</v>
       </c>
       <c r="I61" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3569,52 +3712,55 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>78000</v>
+        <v>75500</v>
       </c>
       <c r="E62" s="3">
-        <v>54100</v>
+        <v>79500</v>
       </c>
       <c r="F62" s="3">
-        <v>34400</v>
+        <v>55100</v>
       </c>
       <c r="G62" s="3">
-        <v>27300</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>29200</v>
+        <v>27800</v>
       </c>
       <c r="I62" s="3">
-        <v>25600</v>
+        <v>29700</v>
       </c>
       <c r="J62" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>152900</v>
+        <v>173700</v>
       </c>
       <c r="E66" s="3">
-        <v>110800</v>
+        <v>155700</v>
       </c>
       <c r="F66" s="3">
-        <v>78900</v>
+        <v>112800</v>
       </c>
       <c r="G66" s="3">
-        <v>72200</v>
+        <v>80400</v>
       </c>
       <c r="H66" s="3">
-        <v>64000</v>
+        <v>73600</v>
       </c>
       <c r="I66" s="3">
-        <v>56100</v>
+        <v>65200</v>
       </c>
       <c r="J66" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K66" s="3">
         <v>18300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-69700</v>
+        <v>-77700</v>
       </c>
       <c r="E72" s="3">
-        <v>-59600</v>
+        <v>-71000</v>
       </c>
       <c r="F72" s="3">
-        <v>-51400</v>
+        <v>-60700</v>
       </c>
       <c r="G72" s="3">
-        <v>-45400</v>
+        <v>-52400</v>
       </c>
       <c r="H72" s="3">
-        <v>-45700</v>
+        <v>-46300</v>
       </c>
       <c r="I72" s="3">
-        <v>-36500</v>
+        <v>-46500</v>
       </c>
       <c r="J72" s="3">
+        <v>-37200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-24000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-27500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-24500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="E76" s="3">
-        <v>-15700</v>
+        <v>-24900</v>
       </c>
       <c r="F76" s="3">
-        <v>-9800</v>
+        <v>-16000</v>
       </c>
       <c r="G76" s="3">
-        <v>-4800</v>
+        <v>-10000</v>
       </c>
       <c r="H76" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>400</v>
       </c>
       <c r="M76" s="3">
         <v>400</v>
       </c>
       <c r="N76" s="3">
+        <v>400</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8200</v>
+        <v>-10300</v>
       </c>
       <c r="F81" s="3">
-        <v>-6000</v>
+        <v>-8400</v>
       </c>
       <c r="G81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-6500</v>
+        <v>-9300</v>
       </c>
       <c r="J81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,29 +4821,30 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4682,8 +4881,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5800</v>
+        <v>-14300</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>5900</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-1000</v>
       </c>
       <c r="G89" s="3">
-        <v>6000</v>
+        <v>-7000</v>
       </c>
       <c r="H89" s="3">
-        <v>-7200</v>
+        <v>6100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1200</v>
+        <v>-7300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-2300</v>
       </c>
       <c r="T89" s="3">
         <v>-2300</v>
       </c>
       <c r="U89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,28 +5279,29 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -5091,8 +5312,8 @@
       <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>-200</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5103,8 +5324,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5118,8 +5339,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5463,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3900</v>
+        <v>-5100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1500</v>
+        <v>-4000</v>
       </c>
       <c r="F94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H94" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,67 +5797,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
-        <v>7800</v>
-      </c>
       <c r="J100" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
-        <v>-8800</v>
-      </c>
       <c r="I102" s="3">
-        <v>5300</v>
+        <v>-9000</v>
       </c>
       <c r="J102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
     </row>
